--- a/statistiche/RandomForestCounterfactuals/FO.xlsx
+++ b/statistiche/RandomForestCounterfactuals/FO.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>0</v>
@@ -922,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
         <v>0</v>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1029,16 +1029,16 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1047,22 +1047,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1163,7 +1163,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1190,22 +1190,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1233,7 +1233,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>1</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1297,10 +1297,10 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -1321,25 +1321,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>1</v>
@@ -1394,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1431,10 +1431,10 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1467,13 +1467,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1516,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1565,13 +1565,13 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1662,22 +1662,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>0</v>
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1732,22 +1732,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1802,22 +1802,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1854,34 +1854,34 @@
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1936,22 +1936,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1976,10 +1976,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2000,22 +2000,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>3</v>
       </c>
-      <c r="N23" t="n">
-        <v>2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2070,22 +2070,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2119,37 +2119,37 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2204,22 +2204,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
@@ -2274,22 +2274,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2408,22 +2408,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2478,22 +2478,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
@@ -2548,22 +2548,22 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
@@ -2618,22 +2618,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2688,22 +2688,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -2816,7 +2816,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2828,22 +2828,22 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>0</v>
@@ -2886,7 +2886,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -2898,22 +2898,22 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1</v>
@@ -2968,22 +2968,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1</v>
@@ -3038,22 +3038,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>6</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1</v>
@@ -3108,22 +3108,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3154,10 +3154,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>1</v>
@@ -3175,25 +3175,25 @@
         <v>1</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
